--- a/10-MG620_input_data - WIP.xlsx
+++ b/10-MG620_input_data - WIP.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\MG620\MG620-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF621854-BCE5-43AE-BF52-593CF0BB0BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32929DA7-4EA1-46C8-8027-5CFA2796E760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39645" yWindow="-900" windowWidth="22425" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12345" yWindow="-20520" windowWidth="22425" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -683,7 +686,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K1048576"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,4 +3822,40 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF8BA0E-63D5-403B-BA98-D2B2ED72406A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12941AF-6BC8-45DE-93B2-F969C5ABE89D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAAC396-69BA-4ED8-ADFD-4F8001CE687A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>